--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2146,10 +2146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C199"/>
+  <dimension ref="A1:C200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C199" sqref="C199"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2161,7 +2161,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44060</v>
+        <v>44061</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4335,6 +4335,17 @@
       </c>
       <c r="C199" s="13">
         <v>2552</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A200" s="12">
+        <v>44061</v>
+      </c>
+      <c r="B200" s="13">
+        <v>619</v>
+      </c>
+      <c r="C200" s="13">
+        <v>1905</v>
       </c>
     </row>
   </sheetData>
